--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,68 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28507"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E996668-46A8-467C-81B7-D6CDD552DAAA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="contatos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>contato</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -80,23 +72,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -416,25 +469,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>nome</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>contato</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Resultados</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(11) 98107-7704</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Resultados</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(11) 96788-2666</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,318 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Resultados</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>(11) 98107-7704</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ProOrtho</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(11) 95530-3530</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Clínica Ortovations</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>(11) 97819-4436</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Centro Médico de Pirituba</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>(11) 3974-4038</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AmorSaúde SP Pirituba</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(11) 99557-8333</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Resultados</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Não tem contato</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dermovisage Pirituba</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>(11) 4280-8200</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Clínica Medica Mutinga</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>(11) 3904-1580</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Clínica Sant's - Unidade Pirituba</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>(11) 99802-9930</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UPA PIRITUBA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>(11) 2039-5555</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ambulatório de Especialidades</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>(11) 3979-4521</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Docs Sua Clínica De Saúde</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>(11) 4280-8200</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Royal Face Pirituba</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>(11) 91896-8822</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AME PIRITUBA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>(87) 98114-5047</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Clínica para Exame Médico e Psicotécnico (cred.Detran SP)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>(11) 3909-8406</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Red8 Laboratório - Unidade Pirituba</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>(11) 2424-7333</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Clínica Médica Mutinga - Dr. Antonio Zanchetta</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>(11) 3902-5515</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Dentz Pirituba - Clínica Odontológica</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>(11) 94358-7108</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UBS Jardim Cidade Pirituba</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>(11) 3974-8210</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Odonto Company Pirituba - Clínica Odontológica</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>(11) 99385-8410</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CAISM Philippe Pinel</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>(11) 3993-8200</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Socorro podóloga e Terapeuta</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>(11) 98109-6939</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RDA Odontologia Especializada</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>(11) 3906-6011</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Clínica Direção Certa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>(11) 96177-0232</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Resultados</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Não tem contato</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Bluefit</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Não tem contato</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
